--- a/legendre_out/DATA/p2/p2IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints6.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.641432153156142e-07</v>
+        <v>4.964562604243208e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>7.133341925863099e-07</v>
+        <v>7.658098539591763e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>8.434561980747841e-07</v>
+        <v>9.121712361429255e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.211002002122667e-06</v>
+        <v>1.275791356509107e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.284150500893558e-06</v>
+        <v>1.358220666002098e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.29981112973888e-06</v>
+        <v>1.366162653180121e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.471513614189222e-06</v>
+        <v>1.551949506011078e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.440994473487786e-06</v>
+        <v>1.512846560758153e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.31186520952703e-06</v>
+        <v>1.379459506707499e-06</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.291705664644125e-06</v>
+        <v>1.361979640108993e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>1.100889830067487e-06</v>
+        <v>1.157148349820473e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>8.28839756731789e-07</v>
+        <v>8.766507819739076e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.676516176489705</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>4.742956390843247e-07</v>
+        <v>4.986983845188027e-07</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.677433152354519</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>6.474717387409354e-07</v>
+        <v>6.829370976458191e-07</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.679207115008878</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>7.542716693320378e-07</v>
+        <v>7.963060899579681e-07</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.680072671666319</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>8.849130058734211e-07</v>
+        <v>9.389578023901929e-07</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.680886809116387</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>1.069545848293414e-06</v>
+        <v>1.128680351544098e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.681743795905933</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>1.187257274436402e-06</v>
+        <v>1.264910661898281e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.682660771770746</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.812309785428271e-06</v>
+        <v>1.911986224874402e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.683397780409756</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>5.167155276661165e-06</v>
+        <v>5.466966979154329e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.684263337067197</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>8.089412744111223e-06</v>
+        <v>8.62526188500338e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.685943031174706</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>1.213450828640757e-05</v>
+        <v>1.28827415199476e-05</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.687699854093274</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>1.227712165629725e-05</v>
+        <v>1.300864292910814e-05</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.689525235955006</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>1.133559730680317e-05</v>
+        <v>1.205779584720074e-05</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.691256349269888</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>1.076553825381594e-05</v>
+        <v>1.142791081159945e-05</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.693013172188456</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>1.077767462114929e-05</v>
+        <v>1.14487271906188e-05</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.693578783469556</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>1.093639726876977e-05</v>
+        <v>1.161878101192418e-05</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.694615737484906</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>1.052290813633154e-05</v>
+        <v>1.118512864260732e-05</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.696278291856625</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>1.059606620652878e-05</v>
+        <v>1.126296629293827e-05</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.698009405171506</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>1.046613787211888e-05</v>
+        <v>1.118038608110682e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.699783367825865</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>1.021834548302402e-05</v>
+        <v>1.082510773892208e-05</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.70147163180127</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>9.982366117305106e-06</v>
+        <v>1.053385405602376e-05</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.703177035512466</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>9.178826892882216e-06</v>
+        <v>9.785632428335096e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.704736751469439</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>8.318919664425315e-06</v>
+        <v>8.880465941068219e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.706647832010125</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>6.749738546024719e-06</v>
+        <v>7.193856939252917e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.708276106910262</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>5.394791797657351e-06</v>
+        <v>5.722841274862868e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.709964370885666</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>3.595382730437128e-06</v>
+        <v>3.838148453338189e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.710855637146794</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>5.123131554485059e-06</v>
+        <v>5.423570821887419e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.711772613011608</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>2.541073201132463e-06</v>
+        <v>2.706628642802543e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.713529435930176</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>1.741454488752328e-06</v>
+        <v>1.83368160992939e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.715166280698207</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>1.315741119437334e-06</v>
+        <v>1.397420598516039e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719356946099085</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>8.01380894525856e-07</v>
+        <v>8.424607364176597e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.723504762160485</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>7.012484094866403e-07</v>
+        <v>7.423741976130552e-07</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.727875394787168</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>6.728692299305148e-07</v>
+        <v>7.034091381259848e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.745075119653346</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>7.18552117860785e-07</v>
+        <v>7.475462542683543e-07</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.762300554123211</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>8.817450843073813e-07</v>
+        <v>9.242421618385569e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.779337451499375</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>1.182160398913713e-06</v>
+        <v>1.238490867762204e-06</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.788087286620635</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>1.687670464621788e-06</v>
+        <v>1.768000297479609e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.796605735308717</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>2.090202245127621e-06</v>
+        <v>2.186768558388333e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.805055625053636</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>3.871040440790613e-06</v>
+        <v>4.051489653465785e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.813539794270136</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>5.994664397895732e-06</v>
+        <v>6.26848846268534e-06</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>1.393926562576682e-05</v>
+        <v>1.457762008442477e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.82226391978771</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>2.069351359251845e-05</v>
+        <v>2.165020405167901e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.830696669796837</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>2.15188591960337e-05</v>
+        <v>2.250775997420149e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.837569703848993</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>1.567911022574405e-05</v>
+        <v>1.640696910651064e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.844554146183789</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>7.36029412109802e-06</v>
+        <v>7.706492720682821e-06</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.846319538970252</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>5.404500948850102e-06</v>
+        <v>5.653101460659166e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.847930674134597</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>7.191071135919902e-06</v>
+        <v>7.524601371438956e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.84977319573212</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>2.764844902427239e-06</v>
+        <v>2.896047096699486e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.852147049139162</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>1.841119035843563e-06</v>
+        <v>1.929816927658289e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.856414843351097</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>1.034332021698015e-06</v>
+        <v>1.088685275680881e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.865190388076044</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>7.722170949498121e-07</v>
+        <v>8.051747914900485e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.866878652051449</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>1.712915508689987e-06</v>
+        <v>1.803354296074264e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.869363913741131</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>5.011501661492414e-06</v>
+        <v>5.324840240239486e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.873640277820963</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>8.752550227278755e-06</v>
+        <v>9.22233186666384e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.878070899522913</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>1.578976949781429e-05</v>
+        <v>1.667201030547187e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.881644534435317</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>1.572159634535498e-05</v>
+        <v>1.658504913532482e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.88648650979625</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>2.716088306286305e-05</v>
+        <v>2.855715669752093e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.890925701366096</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>2.992708584053403e-05</v>
+        <v>3.146801470731771e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>3.827520676498652e-05</v>
+        <v>4.010027360734578e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.908014017949633</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>5.715271493365188e-05</v>
+        <v>5.976606074402438e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.916541036505611</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>5.201060796191689e-05</v>
+        <v>5.434808992152983e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.925025205722112</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>2.609725066505912e-05</v>
+        <v>2.732193536808904e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.933637922957044</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>1.38068285286258e-05</v>
+        <v>1.441835325941277e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.942370618342513</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>1.093793354433444e-05</v>
+        <v>1.149193992366549e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.950700529936895</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>2.425870278544832e-05</v>
+        <v>2.55878223488844e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.959476074661841</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>2.681323620449947e-05</v>
+        <v>2.836255428720928e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.967797416388328</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>1.916068712188169e-05</v>
+        <v>2.033364853629141e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.97227945729765</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>1.010818806651305e-05</v>
+        <v>1.070000171963792e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.976384424019573</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>5.93284495783435e-06</v>
+        <v>6.272042227887315e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.984954291915029</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>4.871518415363091e-06</v>
+        <v>5.1074913091065e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.002231145592266</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.482504969318999e-06</v>
+        <v>2.603724353456562e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.010826723091408</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>1.286534420996688e-06</v>
+        <v>1.349382504953003e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.019208053893163</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>9.655837115949509e-07</v>
+        <v>1.015303368088568e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.036424918495132</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>7.530231218903257e-07</v>
+        <v>7.877081985665096e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.053547514550251</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>6.769427232153894e-07</v>
+        <v>7.10387504202837e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.070687250341162</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>8.922865288487018e-07</v>
+        <v>9.349800132786973e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.075126441911007</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>1.59761227858785e-06</v>
+        <v>1.66660497420768e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.078297293032326</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>1.791458376680754e-06</v>
+        <v>1.884700850289212e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.087861265603653</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>2.148130163547875e-06</v>
+        <v>2.260165814413419e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.09212905981559</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>3.235325721292183e-06</v>
+        <v>3.401983776304901e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.096551111649645</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>6.726923842564556e-06</v>
+        <v>7.166437481317627e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.105069560337727</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>8.362164082493556e-06</v>
+        <v>8.794636792874866e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.113468030875272</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>6.828850751666782e-06</v>
+        <v>7.16682931816056e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.122132167317578</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>3.233379539869159e-06</v>
+        <v>3.391479259336894e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.12395754917931</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>1.541967845081649e-06</v>
+        <v>1.623446367781967e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.126622778094797</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>9.527581185537857e-07</v>
+        <v>1.000121704390232e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.13072774481672</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>5.198899839486853e-07</v>
+        <v>5.456384907521729e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.139151924957952</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>3.350890869093985e-07</v>
+        <v>3.482230151699242e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.156411638899399</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>2.220766355030177e-07</v>
+        <v>2.330910281042928e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.170346244097408</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>2.095557813378938e-07</v>
+        <v>2.201246487603803e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.190571132330683</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>2.466741305640248e-07</v>
+        <v>2.568398979355631e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.199158139961929</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>4.550518256428195e-07</v>
+        <v>4.777608906968754e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.207916544951084</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>6.419721437695039e-07</v>
+        <v>6.719639916435369e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.216340725092316</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>8.086934536831079e-07</v>
+        <v>8.463711060164751e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.221645473319603</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>8.158166699137356e-07</v>
+        <v>8.517697470304743e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.225107699949367</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>8.212183475809589e-07</v>
+        <v>8.567779954876701e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.230875221043007</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>7.790279238806286e-07</v>
+        <v>8.143440250974227e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.23929940118424</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>7.940550720286926e-07</v>
+        <v>8.293855729223002e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.24231599468344</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>7.992851344688803e-07</v>
+        <v>8.365099526662457e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.24787783894759</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>8.382816722117013e-07</v>
+        <v>8.750546624094495e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.252257041442167</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>8.686516907687467e-07</v>
+        <v>9.083160691769209e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.25472516339606</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>9.267749304714062e-07</v>
+        <v>9.668137183264162e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.25739896217944</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>9.311597000009482e-07</v>
+        <v>9.742026601382466e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.259258623512755</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>9.474162519954451e-07</v>
+        <v>9.973309683571837e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.2616239070519</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>9.245614042541596e-07</v>
+        <v>9.66229064467668e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.263192192876769</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>9.177631120497212e-07</v>
+        <v>9.618164691885607e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.271830619715387</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>7.525871577385875e-07</v>
+        <v>7.876163190523244e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.27642406890735</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>7.295064125906478e-07</v>
+        <v>7.67191868775856e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.28036620813926</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>5.82986108454307e-07</v>
+        <v>6.068124819163747e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.28891036643103</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>4.591637739179682e-07</v>
+        <v>4.793541821306442e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.293495245755098</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>4.830240783886931e-07</v>
+        <v>5.054289318291856e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.297651631684394</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>6.071286531431513e-07</v>
+        <v>6.361770261560703e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.300136893374075</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>8.232641590751233e-07</v>
+        <v>8.620350811095723e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.300239731788821</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>7.966102633738128e-07</v>
+        <v>8.328034125990462e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.30191942589633</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.277657315528155e-06</v>
+        <v>1.340998320313347e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.306187220108267</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>2.341289062475281e-06</v>
+        <v>2.460609253993887e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.308783890080591</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>2.550182635544131e-06</v>
+        <v>2.682636933891792e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.310729250092858</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>2.672579725013852e-06</v>
+        <v>2.800757895066542e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.31302597468884</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>3.046567515873581e-06</v>
+        <v>3.181333207352466e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.315699773472222</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>3.449458343009147e-06</v>
+        <v>3.621135119827941e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.318107906350845</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>3.618021997427844e-06</v>
+        <v>3.791383457145289e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.320910253152659</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>3.479788497871423e-06</v>
+        <v>3.645022535715819e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.323318386031281</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>3.151730767600007e-06</v>
+        <v>3.310296809699284e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.327757577601127</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>2.503179088134337e-06</v>
+        <v>2.631560121850081e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.331931103266214</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>1.749079966778611e-06</v>
+        <v>1.857407389625117e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.340535250633251</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.183668205212488e-06</v>
+        <v>1.23828651686825e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.344845894184665</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>9.547840434334623e-07</v>
+        <v>9.963841645342902e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.348762323812888</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>7.730639155945665e-07</v>
+        <v>8.082386890401142e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.357083665539375</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>6.407811575430499e-07</v>
+        <v>6.729961493374639e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.362054188918739</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>7.091041884247854e-07</v>
+        <v>7.406815306330996e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.365250749643743</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>2.631410683288699e-06</v>
+        <v>2.766048856963489e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.367855989483961</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>4.959301973957559e-06</v>
+        <v>5.212978277704609e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.369681371345694</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>5.490915668115146e-06</v>
+        <v>5.774825468203487e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.370624056814194</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>5.76468598834737e-06</v>
+        <v>6.073455819894797e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.371001131001594</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>5.634139477731752e-06</v>
+        <v>5.944097946617914e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.371241087302666</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>5.634453765191568e-06</v>
+        <v>5.929668908258361e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.37310074863598</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>6.95096990503782e-06</v>
+        <v>7.308166941435271e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.37479758247928</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>7.226698107475731e-06</v>
+        <v>7.618592218193585e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.376545835529954</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>7.212221542848661e-06</v>
+        <v>7.576723151134503e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.378156970694299</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>7.250473728846134e-06</v>
+        <v>7.655109243253731e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.379236774049127</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>7.359157643236314e-06</v>
+        <v>7.720711886795813e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.379845234669704</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>7.249532447837275e-06</v>
+        <v>7.614794053005615e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.382493323849399</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>7.086074396181398e-06</v>
+        <v>7.446312468368782e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.386743978325545</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>5.866803914670975e-06</v>
+        <v>6.173724187905628e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.391003202669586</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>4.290564432697786e-06</v>
+        <v>4.511384197793268e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.395073889919927</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>3.1098017901004e-06</v>
+        <v>3.259096756489241e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.396290811161082</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>3.232935189245587e-06</v>
+        <v>3.397437645826799e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.399607350036622</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>2.476672543297564e-06</v>
+        <v>2.597929108161147e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.403952273059619</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>2.457475495988285e-06</v>
+        <v>2.577389488879313e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.406326126466659</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>2.3586844219302e-06</v>
+        <v>2.485955995855259e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.408974215646356</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>2.16534902448257e-06</v>
+        <v>2.271094977726342e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.411759422712378</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>2.003173808081436e-06</v>
+        <v>2.106655607776072e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41349053602726</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>1.903114919086659e-06</v>
+        <v>2.002191006464361e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.414321813213119</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>1.821968436967669e-06</v>
+        <v>1.909590524602225e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.419515153157765</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.51399936186932e-06</v>
+        <v>1.595947186417468e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.421511932377406</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>1.363132247349589e-06</v>
+        <v>1.429014641201175e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.430664551289752</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>8.535178973807197e-07</v>
+        <v>8.972834386415883e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.447624319854858</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>6.146700302222324e-07</v>
+        <v>6.415984864854368e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.464926883135782</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>6.582559514119172e-07</v>
+        <v>6.846250910005157e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.482066618926692</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>8.543723062733559e-07</v>
+        <v>8.951363851503689e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.490182283823687</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>1.086160407999289e-06</v>
+        <v>1.144017016927758e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.493233156794469</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>1.198445481505862e-06</v>
+        <v>1.250881434890233e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.499292053396556</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>1.624987836152064e-06</v>
+        <v>1.697172471347868e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.507699093801998</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>2.398250515446182e-06</v>
+        <v>2.513392829637158e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.512069726428679</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>2.827558812053821e-06</v>
+        <v>2.965643239711751e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.516303241169035</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>3.430311444528016e-06</v>
+        <v>3.605178691429129e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2330,10 +2330,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.520571035380971</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>4.550718993977717e-06</v>
+        <v>4.771945754080226e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2341,10 +2341,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.520622454588343</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>4.523992897001359e-06</v>
+        <v>7.120454723865936e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2352,10 +2352,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.524727421310266</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>6.776165931466811e-06</v>
+        <v>9.073861747802192e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2363,10 +2363,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.529132333408531</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>8.607176109804414e-06</v>
+        <v>1.172483127502042e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2374,10 +2374,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.533597234582063</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>1.119427704573694e-05</v>
+        <v>1.373022444237084e-05</v>
       </c>
     </row>
     <row r="184">
@@ -2385,10 +2385,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.535979657856999</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>1.305550578680872e-05</v>
+        <v>1.32772920034488e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2396,10 +2396,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.540033205371549</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>1.261413447369429e-05</v>
+        <v>1.304769041757962e-05</v>
       </c>
     </row>
     <row r="186">
@@ -2407,10 +2407,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.541790028290118</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>1.238302621158336e-05</v>
+        <v>1.221177654468367e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2418,10 +2418,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.54406961315031</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>1.15922555736293e-05</v>
+        <v>1.050336978403314e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2429,10 +2429,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.54908298586915</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>9.983880459652193e-06</v>
+        <v>9.908519965587203e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2440,10 +2440,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.553067974440538</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>9.419914376077722e-06</v>
+        <v>8.449280031985217e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2451,10 +2451,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.557044393144028</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>8.020492000197395e-06</v>
+        <v>6.668452123362139e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2462,10 +2462,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.561577853260723</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>6.334266772634205e-06</v>
+        <v>5.565576834565691e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2473,10 +2473,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.56575137892581</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>5.306993528145175e-06</v>
+        <v>4.138057438044315e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2484,10 +2484,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.570207710231447</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>3.873096115713192e-06</v>
+        <v>2.808695652040774e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2495,10 +2495,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.570233419835134</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>3.996861233269828e-06</v>
+        <v>1.719056618769803e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2506,10 +2506,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.574141279595461</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>2.67661088741232e-06</v>
+        <v>1.73069940394518e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2517,10 +2517,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.578657599976365</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>1.637470230949773e-06</v>
+        <v>1.299236346130703e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2528,10 +2528,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.578820427466379</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>1.654930860629893e-06</v>
+        <v>1.226629663925717e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2539,10 +2539,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.582256944492457</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>1.240925480719319e-06</v>
+        <v>1.151974147675792e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2550,10 +2550,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.583388167054657</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>1.175440947369156e-06</v>
+        <v>1.934147158737387e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2561,10 +2561,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.583662402827311</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>1.101347329458532e-06</v>
+        <v>1.490258130532389e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2572,10 +2572,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.586636146987034</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>1.839106147058201e-06</v>
+        <v>2.328331430944297e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2583,10 +2583,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.58796447651083</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>1.420931425245015e-06</v>
+        <v>2.20456685603692e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2594,10 +2594,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.591649519705875</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>2.220722781828375e-06</v>
+        <v>2.111095346945854e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2605,10 +2605,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.593303504209699</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>2.103728365953625e-06</v>
+        <v>2.081638040751439e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2616,10 +2616,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.595068896996162</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>2.014005451922516e-06</v>
+        <v>2.02935261218849e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2627,10 +2627,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4.596757160971567</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>1.988884294742056e-06</v>
+        <v>1.919726678263899e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2638,10 +2638,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.598633962040672</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>1.930817117666318e-06</v>
+        <v>1.938651130786326e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2649,10 +2649,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4.600339365751868</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>1.826471418020185e-06</v>
+        <v>1.134497701326644e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2660,10 +2660,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4.601719114483036</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>1.847854238267722e-06</v>
+        <v>4.93634732715102e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2671,10 +2671,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4.606132596449195</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>1.080631454847919e-06</v>
+        <v>3.158470116608483e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2682,10 +2682,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.610666056565891</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>4.700031838493077e-07</v>
+        <v>4.419832617132941e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2693,10 +2693,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4.613091329180303</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>3.023498690646944e-07</v>
+        <v>2.777524698073598e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2704,10 +2704,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.613451263631914</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>4.215786339713776e-07</v>
+        <v>2.140694710433886e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2715,10 +2715,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4.613896896762476</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>2.638403380744419e-07</v>
+        <v>1.851613981441745e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2726,10 +2726,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.615696569020522</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>2.051802350531071e-07</v>
+        <v>1.71788738422489e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2737,10 +2737,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4.619038817499749</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>1.782630918900765e-07</v>
+        <v>1.652175670299611e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2748,10 +2748,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.621798314962087</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>1.63651390816401e-07</v>
+        <v>1.977175816684263e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2759,10 +2759,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.630650988498092</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>1.565890879375009e-07</v>
+        <v>1.948071322265654e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2770,10 +2770,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.639795037542543</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>1.902138829049596e-07</v>
+        <v>2.139587693660894e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2781,32 +2781,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4.64860486173907</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>1.862897161270327e-07</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.065433469263031e-07</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.361536246428756e-07</v>
+        <v>2.454915392067255e-07</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/p2IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints6.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.964562604243208e-07</v>
+        <v>4.875387052158386e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>7.658098539591763e-07</v>
+        <v>7.664731088037678e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>9.121712361429255e-07</v>
+        <v>8.942913436480789e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.275791356509107e-06</v>
+        <v>1.261421562847211e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.358220666002098e-06</v>
+        <v>1.371740359235517e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.366162653180121e-06</v>
+        <v>1.384816719319537e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.551949506011078e-06</v>
+        <v>1.53961813916179e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.512846560758153e-06</v>
+        <v>1.506006367242253e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.379459506707499e-06</v>
+        <v>1.387110560541493e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.361979640108993e-06</v>
+        <v>1.388083835444899e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>1.157148349820473e-06</v>
+        <v>1.162404947605394e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>8.766507819739076e-07</v>
+        <v>9.060212415656606e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>4.986983845188027e-07</v>
+        <v>5.017211761495207e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>6.829370976458191e-07</v>
+        <v>6.85138312987553e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>7.963060899579681e-07</v>
+        <v>8.117560382525849e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>9.389578023901929e-07</v>
+        <v>9.26046033124905e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>1.128680351544098e-06</v>
+        <v>1.136007123650948e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>1.264910661898281e-06</v>
+        <v>1.261081586392797e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.911986224874402e-06</v>
+        <v>1.918751469296796e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>5.466966979154329e-06</v>
+        <v>5.465765458085243e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>8.62526188500338e-06</v>
+        <v>8.676774616503793e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>1.28827415199476e-05</v>
+        <v>1.291856868004094e-05</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>1.300864292910814e-05</v>
+        <v>1.297822814059329e-05</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>1.205779584720074e-05</v>
+        <v>1.205750066169041e-05</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>1.142791081159945e-05</v>
+        <v>1.144058954583852e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>1.14487271906188e-05</v>
+        <v>1.143009499224156e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>1.161878101192418e-05</v>
+        <v>1.165525338935524e-05</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>1.118512864260732e-05</v>
+        <v>1.119240784942325e-05</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>1.126296629293827e-05</v>
+        <v>1.124416098242325e-05</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>1.118038608110682e-05</v>
+        <v>1.114539747095098e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>1.082510773892208e-05</v>
+        <v>1.085802742449687e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>1.053385405602376e-05</v>
+        <v>1.050119310857434e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>9.785632428335096e-06</v>
+        <v>9.802455144594191e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>8.880465941068219e-06</v>
+        <v>8.892139597857153e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>7.193856939252917e-06</v>
+        <v>7.172139161393925e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>5.722841274862868e-06</v>
+        <v>5.726102893719208e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>3.838148453338189e-06</v>
+        <v>3.872156408257526e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>5.423570821887419e-06</v>
+        <v>5.45694782973997e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>2.706628642802543e-06</v>
+        <v>2.730113023101276e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>1.83368160992939e-06</v>
+        <v>1.828724146727303e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>1.397420598516039e-06</v>
+        <v>1.393066844088328e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>8.424607364176597e-07</v>
+        <v>8.362395127657625e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>7.423741976130552e-07</v>
+        <v>7.391776030904121e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>7.034091381259848e-07</v>
+        <v>6.871576989852908e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>7.475462542683543e-07</v>
+        <v>7.264008352917573e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>9.242421618385569e-07</v>
+        <v>9.283663350605234e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>1.238490867762204e-06</v>
+        <v>1.216900292240238e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>1.768000297479609e-06</v>
+        <v>1.772107121244076e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>2.186768558388333e-06</v>
+        <v>2.176469778977217e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>4.051489653465785e-06</v>
+        <v>4.080615471151163e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>6.26848846268534e-06</v>
+        <v>6.275729014156114e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>1.457762008442477e-05</v>
+        <v>1.4609479810407e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>2.165020405167901e-05</v>
+        <v>2.165301546307105e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>2.250775997420149e-05</v>
+        <v>2.253977432813269e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>1.640696910651064e-05</v>
+        <v>1.642186114433008e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>7.706492720682821e-06</v>
+        <v>7.715571603825184e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>5.653101460659166e-06</v>
+        <v>5.702507038472074e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>7.524601371438956e-06</v>
+        <v>7.524961279468705e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>2.896047096699486e-06</v>
+        <v>2.874710166403358e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>1.929816927658289e-06</v>
+        <v>1.916925597088314e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>1.088685275680881e-06</v>
+        <v>1.084065203998018e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>8.051747914900485e-07</v>
+        <v>8.115199353830406e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>1.803354296074264e-06</v>
+        <v>1.831661543871909e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>5.324840240239486e-06</v>
+        <v>5.326719760001153e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>9.22233186666384e-06</v>
+        <v>9.255962076585883e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>1.667201030547187e-05</v>
+        <v>1.666958941368638e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>1.658504913532482e-05</v>
+        <v>1.659913406209787e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>2.855715669752093e-05</v>
+        <v>2.863256314198497e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>3.146801470731771e-05</v>
+        <v>3.164452091654876e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>4.010027360734578e-05</v>
+        <v>4.015611557779203e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>5.976606074402438e-05</v>
+        <v>5.994250844592309e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>5.434808992152983e-05</v>
+        <v>5.444816331133688e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>2.732193536808904e-05</v>
+        <v>2.730604123238492e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>1.441835325941277e-05</v>
+        <v>1.441721412436849e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>1.149193992366549e-05</v>
+        <v>1.153251755868158e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>2.55878223488844e-05</v>
+        <v>2.55212596437216e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>2.836255428720928e-05</v>
+        <v>2.833293329861297e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>2.033364853629141e-05</v>
+        <v>2.036392296615112e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>1.070000171963792e-05</v>
+        <v>1.069632113423581e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>6.272042227887315e-06</v>
+        <v>6.316246274381253e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>5.1074913091065e-06</v>
+        <v>5.130006328711394e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.603724353456562e-06</v>
+        <v>2.596646585418531e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>1.349382504953003e-06</v>
+        <v>1.324111787057379e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>1.015303368088568e-06</v>
+        <v>1.005851788329008e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>7.877081985665096e-07</v>
+        <v>7.764774036441546e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>7.10387504202837e-07</v>
+        <v>7.035533730454141e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>9.349800132786973e-07</v>
+        <v>9.343536881544652e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>1.66660497420768e-06</v>
+        <v>1.666562756466677e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>1.884700850289212e-06</v>
+        <v>1.895112713769236e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>2.260165814413419e-06</v>
+        <v>2.268422780066136e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>3.401983776304901e-06</v>
+        <v>3.407923027065238e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>7.166437481317627e-06</v>
+        <v>7.169932616573723e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>8.794636792874866e-06</v>
+        <v>8.803897659718217e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>7.16682931816056e-06</v>
+        <v>7.162980547998956e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>3.391479259336894e-06</v>
+        <v>3.382146314541556e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>1.623446367781967e-06</v>
+        <v>1.624466834450577e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>1.000121704390232e-06</v>
+        <v>1.001826499644663e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>5.456384907521729e-07</v>
+        <v>5.475729608676356e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>3.482230151699242e-07</v>
+        <v>3.430053825118543e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>2.330910281042928e-07</v>
+        <v>2.289582924879857e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>2.201246487603803e-07</v>
+        <v>2.254892920996152e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>2.568398979355631e-07</v>
+        <v>2.528624486461005e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>4.777608906968754e-07</v>
+        <v>4.838222653406963e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>6.719639916435369e-07</v>
+        <v>6.759989716627377e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>8.463711060164751e-07</v>
+        <v>8.582603603711428e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>8.517697470304743e-07</v>
+        <v>8.591558255454886e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>8.567779954876701e-07</v>
+        <v>8.583525095333906e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>8.143440250974227e-07</v>
+        <v>8.187565577941694e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>8.293855729223002e-07</v>
+        <v>8.312129325467675e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>8.365099526662457e-07</v>
+        <v>8.274575774778119e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>8.750546624094495e-07</v>
+        <v>9.035616571292335e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>9.083160691769209e-07</v>
+        <v>9.413493195331892e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>9.668137183264162e-07</v>
+        <v>1.000141014113012e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>9.742026601382466e-07</v>
+        <v>9.960921387181729e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>9.973309683571837e-07</v>
+        <v>1.005159908753362e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>9.66229064467668e-07</v>
+        <v>9.927244618597231e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>9.618164691885607e-07</v>
+        <v>9.91793761471008e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>7.876163190523244e-07</v>
+        <v>8.234603528380149e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>7.67191868775856e-07</v>
+        <v>7.700907397728536e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>6.068124819163747e-07</v>
+        <v>6.219275156917939e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>4.793541821306442e-07</v>
+        <v>4.930881914716535e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>5.054289318291856e-07</v>
+        <v>5.044547923330061e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>6.361770261560703e-07</v>
+        <v>6.547703925787614e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>8.620350811095723e-07</v>
+        <v>8.87708409375213e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>8.328034125990462e-07</v>
+        <v>8.570459583388951e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.340998320313347e-06</v>
+        <v>1.382605160036207e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>2.460609253993887e-06</v>
+        <v>2.522802081142989e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>2.682636933891792e-06</v>
+        <v>2.730903361882411e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>2.800757895066542e-06</v>
+        <v>2.814551998363002e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>3.181333207352466e-06</v>
+        <v>3.248013972215893e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>3.621135119827941e-06</v>
+        <v>3.69853776145466e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>3.791383457145289e-06</v>
+        <v>3.867052332885705e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>3.645022535715819e-06</v>
+        <v>3.692675991967091e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>3.310296809699284e-06</v>
+        <v>3.365603864617732e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>2.631560121850081e-06</v>
+        <v>2.640207541800626e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>1.857407389625117e-06</v>
+        <v>1.906562351585909e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.23828651686825e-06</v>
+        <v>1.258194474588195e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>9.963841645342902e-07</v>
+        <v>1.007409086173262e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>8.082386890401142e-07</v>
+        <v>8.188923264662828e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>6.729961493374639e-07</v>
+        <v>6.849608823304323e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>7.406815306330996e-07</v>
+        <v>7.446321927877202e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>2.766048856963489e-06</v>
+        <v>2.798899763882648e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>5.212978277704609e-06</v>
+        <v>5.266990473268758e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>5.774825468203487e-06</v>
+        <v>5.806165096226874e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>6.073455819894797e-06</v>
+        <v>6.131887513461997e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>5.944097946617914e-06</v>
+        <v>5.982815899642911e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>5.929668908258361e-06</v>
+        <v>5.94921862064279e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>7.308166941435271e-06</v>
+        <v>7.325799184380119e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>7.618592218193585e-06</v>
+        <v>7.630427130281866e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>7.576723151134503e-06</v>
+        <v>7.614774489984054e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>7.655109243253731e-06</v>
+        <v>7.685996743985971e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>7.720711886795813e-06</v>
+        <v>7.708332894890564e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>7.614794053005615e-06</v>
+        <v>7.645189665554177e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>7.446312468368782e-06</v>
+        <v>7.451329373497627e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>6.173724187905628e-06</v>
+        <v>6.18783434879252e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>4.511384197793268e-06</v>
+        <v>4.523760798712249e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>3.259096756489241e-06</v>
+        <v>3.270436375845722e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>3.397437645826799e-06</v>
+        <v>3.423642924077356e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>2.597929108161147e-06</v>
+        <v>2.62400923287587e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>2.577389488879313e-06</v>
+        <v>2.608076414085269e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>2.485955995855259e-06</v>
+        <v>2.486377667133603e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>2.271094977726342e-06</v>
+        <v>2.285913478516962e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>2.106655607776072e-06</v>
+        <v>2.105517859560872e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>2.002191006464361e-06</v>
+        <v>2.007384479625294e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>1.909590524602225e-06</v>
+        <v>1.922311700091603e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.595947186417468e-06</v>
+        <v>1.608071889314871e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>1.429014641201175e-06</v>
+        <v>1.434290406982623e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>8.972834386415883e-07</v>
+        <v>8.95974047374574e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>6.415984864854368e-07</v>
+        <v>6.439686175485729e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>6.846250910005157e-07</v>
+        <v>6.848027473261703e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>8.951363851503689e-07</v>
+        <v>8.978148150655132e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>1.144017016927758e-06</v>
+        <v>1.148802355726767e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>1.250881434890233e-06</v>
+        <v>1.249510108726944e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>1.697172471347868e-06</v>
+        <v>1.700259416959647e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>2.513392829637158e-06</v>
+        <v>2.513052197041345e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>2.965643239711751e-06</v>
+        <v>2.957021915098098e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>3.605178691429129e-06</v>
+        <v>3.599630003461813e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>4.771945754080226e-06</v>
+        <v>4.761114532610576e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>7.120454723865936e-06</v>
+        <v>7.131160655528037e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>9.073861747802192e-06</v>
+        <v>9.035244675044276e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>1.172483127502042e-05</v>
+        <v>1.172265043982432e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>1.373022444237084e-05</v>
+        <v>1.373352602736796e-05</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>1.32772920034488e-05</v>
+        <v>1.330894923240544e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>1.304769041757962e-05</v>
+        <v>1.304840784276475e-05</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>1.221177654468367e-05</v>
+        <v>1.220801056299082e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>1.050336978403314e-05</v>
+        <v>1.052044352946354e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>9.908519965587203e-06</v>
+        <v>9.917717419783287e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>8.449280031985217e-06</v>
+        <v>8.44576712475368e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>6.668452123362139e-06</v>
+        <v>6.670447635630064e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>5.565576834565691e-06</v>
+        <v>5.577789858390184e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>4.138057438044315e-06</v>
+        <v>4.140524172680176e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>2.808695652040774e-06</v>
+        <v>2.809555830561969e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>1.719056618769803e-06</v>
+        <v>1.725882626596624e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>1.73069940394518e-06</v>
+        <v>1.728632921372366e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>1.299236346130703e-06</v>
+        <v>1.298810493747714e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>1.226629663925717e-06</v>
+        <v>1.221569486382957e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>1.151974147675792e-06</v>
+        <v>1.152058434710631e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>1.934147158737387e-06</v>
+        <v>1.935645269543463e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>1.490258130532389e-06</v>
+        <v>1.489637256530085e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>2.328331430944297e-06</v>
+        <v>2.330062065551647e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>2.20456685603692e-06</v>
+        <v>2.20323565529447e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>2.111095346945854e-06</v>
+        <v>2.117509376309916e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>2.081638040751439e-06</v>
+        <v>2.082180489578504e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>2.02935261218849e-06</v>
+        <v>2.021061115191189e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>1.919726678263899e-06</v>
+        <v>1.919873767047673e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>1.938651130786326e-06</v>
+        <v>1.934994695242522e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>1.134497701326644e-06</v>
+        <v>1.139891445647477e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>4.93634732715102e-07</v>
+        <v>4.961569529101091e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>3.158470116608483e-07</v>
+        <v>3.164624605028206e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>4.419832617132941e-07</v>
+        <v>4.436380507882719e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>2.777524698073598e-07</v>
+        <v>2.756017664736011e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>2.140694710433886e-07</v>
+        <v>2.132831108599862e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>1.851613981441745e-07</v>
+        <v>1.84384086140118e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>1.71788738422489e-07</v>
+        <v>1.715578096960481e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>1.652175670299611e-07</v>
+        <v>1.685300189700413e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>1.977175816684263e-07</v>
+        <v>1.953713219041158e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>1.948071322265654e-07</v>
+        <v>1.958553153684319e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>2.139587693660894e-07</v>
+        <v>2.139058199838511e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>2.454915392067255e-07</v>
+        <v>2.464147003645144e-07</v>
       </c>
     </row>
   </sheetData>
